--- a/data/trans_camb/P1432-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P1432-Clase-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.156893928197265</v>
+        <v>-2.195558472125029</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.908747776677315</v>
+        <v>-1.837129097072034</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.2186406023524553</v>
+        <v>-0.219298611775941</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.2808797476488797</v>
+        <v>-0.4681097281133036</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.015791995012769</v>
+        <v>-0.9365650450951717</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.9988212261512657</v>
+        <v>-0.9453089307269297</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07927003163804956</v>
+        <v>0.08398115725551275</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4926111859426088</v>
+        <v>0.4434398526536726</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.650038178887709</v>
+        <v>2.332004347691591</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.193756552484087</v>
+        <v>1.848465601830765</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5867134764090285</v>
+        <v>0.6220068586649421</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6503066169722835</v>
+        <v>0.6758635397656306</v>
       </c>
     </row>
     <row r="7">
@@ -717,10 +717,10 @@
       <c r="E8" s="6" t="inlineStr"/>
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="n">
-        <v>-1</v>
+        <v>-0.8567973538128558</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.9211573175905742</v>
+        <v>-0.912990102477782</v>
       </c>
     </row>
     <row r="9">
@@ -735,10 +735,10 @@
       <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="n">
-        <v>2.370283487678567</v>
+        <v>3.819247892173579</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.561948681796571</v>
+        <v>3.415756137507553</v>
       </c>
     </row>
     <row r="10">
@@ -779,22 +779,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.466206586425977</v>
+        <v>-2.520838569803503</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.028761375232953</v>
+        <v>-2.199290232846677</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.85345070986072</v>
+        <v>-2.856339402451112</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.481549038254624</v>
+        <v>-1.470636670287051</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.039193219377872</v>
+        <v>-1.972762097276368</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.409665607044308</v>
+        <v>-1.285191252094299</v>
       </c>
     </row>
     <row r="12">
@@ -805,22 +805,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.03595136445989307</v>
+        <v>-0.02109948659525417</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.452050983143397</v>
+        <v>0.4697895210590195</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.3198286166238762</v>
+        <v>-0.2742456748083312</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.050994590430881</v>
+        <v>1.941446203090271</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-0.3717385008957725</v>
+        <v>-0.3581929142292718</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8665410288978764</v>
+        <v>0.9444776907817738</v>
       </c>
     </row>
     <row r="13">
@@ -866,7 +866,7 @@
         <v>-1</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.8050309628443975</v>
+        <v>-0.8093917573407459</v>
       </c>
     </row>
     <row r="15">
@@ -880,13 +880,13 @@
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>5.541496624099031</v>
+        <v>5.342145652189052</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1123907836036325</v>
+        <v>0.1414905644690448</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.572270862478558</v>
+        <v>2.125400186486791</v>
       </c>
     </row>
     <row r="16">
@@ -927,22 +927,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.23796914979807</v>
+        <v>-1.269827479485992</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.766251737844659</v>
+        <v>-1.743234855924606</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.024814179984024</v>
+        <v>-2.883807412815376</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.131425479711873</v>
+        <v>-2.743691460106815</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.252835614946598</v>
+        <v>-1.138376843511336</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.453401601306251</v>
+        <v>-1.516080215189399</v>
       </c>
     </row>
     <row r="18">
@@ -953,22 +953,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.601745693584077</v>
+        <v>1.462279354791279</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7007068311113416</v>
+        <v>0.6435383867782984</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.551902452579414</v>
+        <v>1.920889718265299</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.81011073232129</v>
+        <v>2.766754459687905</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.102933444615282</v>
+        <v>1.183783500195432</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.8302669448201324</v>
+        <v>0.6961269547158622</v>
       </c>
     </row>
     <row r="19">
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.7396952366941069</v>
+        <v>-0.7697725501258466</v>
       </c>
       <c r="D20" s="6" t="n">
         <v>-1</v>
@@ -1013,10 +1013,10 @@
       <c r="E20" s="6" t="inlineStr"/>
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="n">
-        <v>-0.7126753001760771</v>
+        <v>-0.6847826620245039</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.8501517708435405</v>
+        <v>-0.8435443341528077</v>
       </c>
     </row>
     <row r="21">
@@ -1027,18 +1027,18 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>4.634337028412876</v>
+        <v>3.395130348223742</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.405616363620273</v>
+        <v>2.269137459904345</v>
       </c>
       <c r="E21" s="6" t="inlineStr"/>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="n">
-        <v>1.888880853165058</v>
+        <v>1.868742204700159</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.905353972707231</v>
+        <v>1.330534555854235</v>
       </c>
     </row>
     <row r="22">
@@ -1079,22 +1079,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.177132602408937</v>
+        <v>-1.22811150662308</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.636911806241893</v>
+        <v>-1.632411645094141</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.057142407876857</v>
+        <v>-1.01218900734964</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.706067398220672</v>
+        <v>-0.6610363553593185</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.9560549555778034</v>
+        <v>-0.9018590794963017</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.020206761834608</v>
+        <v>-1.06825047590886</v>
       </c>
     </row>
     <row r="24">
@@ -1105,22 +1105,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.371863896405191</v>
+        <v>0.4748010252871646</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.2853999328919322</v>
+        <v>-0.2398076265825359</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7392536061216141</v>
+        <v>0.6800495462334678</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.365214001849318</v>
+        <v>1.402048061785173</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3362308524089442</v>
+        <v>0.3183473320099382</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1532633121994283</v>
+        <v>0.1532497262174124</v>
       </c>
     </row>
     <row r="25">
@@ -1157,22 +1157,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.7195925473317745</v>
+        <v>-0.7063813266600107</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.9189549664580206</v>
+        <v>-0.896058134139592</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.8189571101092823</v>
+        <v>-0.8390764165715462</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.6549921938978236</v>
+        <v>-0.5843776654485584</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.6687175143215224</v>
+        <v>-0.6330250189004832</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.7084630485662181</v>
+        <v>-0.7174990426038719</v>
       </c>
     </row>
     <row r="27">
@@ -1183,22 +1183,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.4223452639848738</v>
+        <v>0.6480335111192147</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.2459069256039661</v>
+        <v>-0.2020986679436691</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.608490085132196</v>
+        <v>2.117148850731184</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>4.196619759401358</v>
+        <v>3.742534934660803</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4445760985112402</v>
+        <v>0.413775513337191</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2909522062685027</v>
+        <v>0.2551185975329829</v>
       </c>
     </row>
     <row r="28">
@@ -1239,22 +1239,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.46960276428158</v>
+        <v>-2.56614689031117</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.151291340355522</v>
+        <v>-1.875000291151937</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.8069924819770523</v>
+        <v>-0.8109055465474252</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.506299206157395</v>
+        <v>-2.468394897452846</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.028790091977928</v>
+        <v>-0.8927361237038975</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-1.87681066984718</v>
+        <v>-1.653121329408058</v>
       </c>
     </row>
     <row r="30">
@@ -1265,22 +1265,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.529600037851591</v>
+        <v>0.3754578738857024</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.8022429087436552</v>
+        <v>0.8219908853584158</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.634983468902683</v>
+        <v>2.518377141125898</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.3156989550075364</v>
+        <v>0.3770536627694347</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.384216859193227</v>
+        <v>1.270626435551098</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.235961255583956</v>
+        <v>0.2190087342282473</v>
       </c>
     </row>
     <row r="31">
@@ -1316,23 +1316,21 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C32" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="C32" s="6" t="inlineStr"/>
       <c r="D32" s="6" t="n">
-        <v>-0.8072691966366565</v>
+        <v>-0.828152888700862</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.3299169597003379</v>
+        <v>-0.3451721237241094</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.8512956246771409</v>
+        <v>-0.8353577492221261</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.4295908660750107</v>
+        <v>-0.4001749516795966</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.7407945509164013</v>
+        <v>-0.7220838240630923</v>
       </c>
     </row>
     <row r="33">
@@ -1342,23 +1340,21 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C33" s="6" t="n">
-        <v>2.451299532111129</v>
-      </c>
+      <c r="C33" s="6" t="inlineStr"/>
       <c r="D33" s="6" t="n">
-        <v>1.834428492858246</v>
+        <v>2.061976338667762</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>2.16024418143664</v>
+        <v>2.389093011630735</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.3452694573240609</v>
+        <v>0.5088233720551125</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.283349866968585</v>
+        <v>1.169628391999331</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2939909569903194</v>
+        <v>0.2116413353143811</v>
       </c>
     </row>
     <row r="34">
@@ -1401,16 +1397,16 @@
       <c r="C35" s="5" t="inlineStr"/>
       <c r="D35" s="5" t="inlineStr"/>
       <c r="E35" s="5" t="n">
-        <v>-1.070818899026717</v>
+        <v>-0.9884344821430892</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-0.9875457800553689</v>
+        <v>-0.9985576251499286</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-0.8098989787061476</v>
+        <v>-0.836494357077495</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-0.8634832126391484</v>
+        <v>-0.9045822948034186</v>
       </c>
     </row>
     <row r="36">
@@ -1423,16 +1419,16 @@
       <c r="C36" s="5" t="inlineStr"/>
       <c r="D36" s="5" t="inlineStr"/>
       <c r="E36" s="5" t="n">
-        <v>1.464965124484078</v>
+        <v>1.47828379857206</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1.501443420103679</v>
+        <v>1.542427644393929</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>1.304887550477748</v>
+        <v>1.118828966311258</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>1.198494534882036</v>
+        <v>1.120321673779429</v>
       </c>
     </row>
     <row r="37">
@@ -1467,16 +1463,16 @@
       <c r="C38" s="6" t="inlineStr"/>
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="n">
-        <v>-0.3974450429737567</v>
+        <v>-0.3915694014044002</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.3898912703535741</v>
+        <v>-0.3873388613247517</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.385214930012946</v>
+        <v>-0.3802740698942481</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.4331158854223585</v>
+        <v>-0.4511464290045861</v>
       </c>
     </row>
     <row r="39">
@@ -1489,16 +1485,16 @@
       <c r="C39" s="6" t="inlineStr"/>
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="n">
-        <v>0.910202950882346</v>
+        <v>1.02539722763044</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1.073335552735236</v>
+        <v>1.072452249884398</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1.110592517248177</v>
+        <v>0.8753609889882682</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.9783441859434739</v>
+        <v>0.9303471343802804</v>
       </c>
     </row>
     <row r="40">
@@ -1539,22 +1535,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.9394404677228468</v>
+        <v>-0.953834210800417</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-1.026605257978818</v>
+        <v>-1.005517376982689</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-0.4334311020480481</v>
+        <v>-0.4421578071388227</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-0.659113029903737</v>
+        <v>-0.6297343467125458</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.5228348703732831</v>
+        <v>-0.5048539071448618</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-0.673117297285727</v>
+        <v>-0.6496946201100254</v>
       </c>
     </row>
     <row r="42">
@@ -1565,22 +1561,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.007022274018907823</v>
+        <v>0.01125245744107956</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-0.1440662194764902</v>
+        <v>-0.1362024565484374</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>0.7377580943432035</v>
+        <v>0.7684160632071193</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>0.545432886501678</v>
+        <v>0.5418986593457399</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>0.2319329950200718</v>
+        <v>0.2862328894080443</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>0.06034216781154528</v>
+        <v>0.08722276965718391</v>
       </c>
     </row>
     <row r="43">
@@ -1617,22 +1613,22 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.6701932106099138</v>
+        <v>-0.691939960391432</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.7505980396962231</v>
+        <v>-0.7360686840089261</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.2528404382715961</v>
+        <v>-0.2555802616915067</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.3701287669200691</v>
+        <v>-0.3549564382955872</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.3516504190990237</v>
+        <v>-0.336166051852311</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.450748833699854</v>
+        <v>-0.4417690556730545</v>
       </c>
     </row>
     <row r="45">
@@ -1643,22 +1639,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.05683573387408962</v>
+        <v>0.04269058883522531</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.1361579132141594</v>
+        <v>-0.1341156890270118</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.6886395279319844</v>
+        <v>0.6334872023621516</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.4839344897950896</v>
+        <v>0.4651786708223939</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.2010628334213856</v>
+        <v>0.269574052014992</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.05265573880543071</v>
+        <v>0.08393254000753868</v>
       </c>
     </row>
     <row r="46">
